--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251003_184421.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251003_184421.xlsx
@@ -8075,7 +8075,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -8323,7 +8323,7 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -10865,7 +10865,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -13283,7 +13283,7 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
